--- a/tasks/templates2_660/template_disease_map.xlsx
+++ b/tasks/templates2_660/template_disease_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy.li/Basebit/Projects/AutoTemplate/tasks/templates2_660/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576E3322-9C08-EC46-AFDB-C5C6032D78D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E49FBE-1215-6540-95F7-2A2A79B4BA98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,298 +69,299 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>咳血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-头晕(4100200)门诊病历(初诊)d51ddaf7-fa7d-454b-bdf2-d7ea8537eb2c.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊耳鼻咽喉科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊儿内</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R42.x00x004</t>
+  </si>
+  <si>
+    <t>头晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-呕血(4100200)门诊病历(初诊)33edc51f-9a2d-4826-bfab-d87658601b59.html</t>
+  </si>
+  <si>
+    <t>K92.000</t>
+  </si>
+  <si>
+    <t>K92.000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呕血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-腹痛(4100200)门诊病历(初诊)e8b9e6fd-3645-4956-af23-ef9273ff6641.html</t>
+  </si>
+  <si>
+    <t>R10.402</t>
+  </si>
+  <si>
+    <t>腹痛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-性早熟（男童）(4100200)门诊病历(初诊)a00123c0-b012-4b13-905a-bdaaa56d05fe.html</t>
+  </si>
+  <si>
+    <t>E30.100</t>
+  </si>
+  <si>
+    <t>性早熟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-性早熟（女童）(4100200)门诊病历(初诊)14647c84-46a0-4d4e-9516-d2529a567743.html</t>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-血友病(4100200)门诊病历(初诊)63cf300b-fd4c-4f7f-bdf4-8d564a4cdd68.html</t>
+  </si>
+  <si>
+    <t>D66.x02</t>
+  </si>
+  <si>
+    <t>血友病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-椎动脉型颈椎病(4280000)门诊病历(初诊)57cabcfd-e091-4721-bafd-5b62e2c49e34.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊推拿科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>椎动脉型颈椎病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-腹痛(4360106)门诊病历(初诊)ac497743-980a-447f-ad04-5a3be8bf288b.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九舍门诊妇科</t>
+  </si>
+  <si>
+    <t>上腹痛-初诊(4360117)上腹痛-初诊4a8594fd-b473-47da-89db-3b7a2e942877.html</t>
+  </si>
+  <si>
+    <t>R10.101</t>
+  </si>
+  <si>
+    <t>上腹痛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下腹痛-初诊(4360117)下腹痛-初诊baa6a105-a261-49d7-a114-e6b557434051.html</t>
+  </si>
+  <si>
+    <t>R10.301</t>
+  </si>
+  <si>
+    <t>下腹痛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头晕-初诊(4360117)头晕-初诊226014e5-341b-4416-b529-15fbe2dc9aee.html</t>
+  </si>
+  <si>
+    <t>血小板减少(初诊)(4050100)门诊病历(初诊)f15f5b78-2855-46c8-a04b-c804b1a73739.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊血液</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D69.600</t>
+  </si>
+  <si>
+    <t>血小板减少</t>
+  </si>
+  <si>
+    <t>血小板减少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-肩关节痛(4270000)门诊病历(初诊)57af8ad2-dcb7-4f0f-ad10-0c7ca9fb3526.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊针灸科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩关节痛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-支气管炎(4270000)门诊病历(初诊)ccb3153b-d81c-4d36-83fb-ce0b6d274554.html</t>
+  </si>
+  <si>
+    <t>J40.x00</t>
+  </si>
+  <si>
+    <t>支气管炎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-肱骨内上髁炎(4280000)门诊病历(初诊)24497434-91c7-4a31-9c92-e6c19301c014.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M77.001</t>
+  </si>
+  <si>
+    <t>肱骨内上髁炎</t>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-肱骨外上髁炎(4280000)门诊病历(初诊)91a01a3a-0488-4657-8500-255df5353cc5.html</t>
+  </si>
+  <si>
+    <t>M77.101</t>
+  </si>
+  <si>
+    <t>肱骨外上髁炎</t>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-肱骨内、外上髁炎(4360109)门诊病历(初诊)0cf492da-aab5-425a-9f93-e6341fbcdc8a.html</t>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-肱骨内、外上髁炎(4360109)门诊病历(初诊)0cf492da-aab5-425a-9f93-e6341fbcdc8a.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九舍门诊骨科</t>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-痛风性关节炎(4360109)门诊病历(初诊)00910d10-3b78-4f86-a569-4fc54e2ce3e5.html</t>
+  </si>
+  <si>
+    <t>M10.002</t>
+  </si>
+  <si>
+    <t>痛风性关节炎</t>
+  </si>
+  <si>
+    <t>皮炎湿疹(初诊)模板(4260100)皮炎湿疹(初诊)f9ee85c1-f29d-4b3c-9f9c-e6fc11be6218.html</t>
+  </si>
+  <si>
+    <t>皮炎湿疹(初诊)模板(4260100)皮炎湿疹(初诊)f9ee85c1-f29d-4b3c-9f9c-e6fc11be6218.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊皮肤科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L30.900</t>
+  </si>
+  <si>
+    <t>皮炎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L30.902</t>
+  </si>
+  <si>
+    <t>湿疹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿疹(初诊)模板(4090200)门诊病历(初诊)0111ef2f-d69c-4d84-ae91-9b3e5a3f9443.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊中医外科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呕血-初诊(4360117)呕血-初诊6ef37e8a-6493-4943-9637-b05e842c1685.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九舍门诊普内科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血小板减少-初诊(4360117)血小板减少-初诊79dfe5ef-1fab-4ed2-b80d-41688eb296ea.html</t>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-乳房肿块(4121601)门诊病历(初诊)b5073a25-30ba-44b6-8c0f-b5a81ab810c8.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N63.x00</t>
+  </si>
+  <si>
+    <t>乳房肿块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-抑郁焦虑状态(4320100)门诊病历(初诊)c55c69e2-84ea-4cb8-adca-7caadd17e81c.html</t>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-抑郁焦虑状态(4320100)门诊病历(初诊)c55c69e2-84ea-4cb8-adca-7caadd17e81c.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊心理科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F32.901</t>
+  </si>
+  <si>
+    <t>抑郁状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F41.101</t>
+  </si>
+  <si>
+    <t>焦虑状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M47.001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"gender":"M"}</t>
+  </si>
+  <si>
+    <t>{"gender":"F"}</t>
+  </si>
+  <si>
+    <t>depart_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>depart_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>R04.200</t>
-  </si>
-  <si>
-    <t>咳血</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-头晕(4100200)门诊病历(初诊)d51ddaf7-fa7d-454b-bdf2-d7ea8537eb2c.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊耳鼻咽喉科</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊儿内</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R42.x00x004</t>
-  </si>
-  <si>
-    <t>头晕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-呕血(4100200)门诊病历(初诊)33edc51f-9a2d-4826-bfab-d87658601b59.html</t>
-  </si>
-  <si>
-    <t>K92.000</t>
-  </si>
-  <si>
-    <t>K92.000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>呕血</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-腹痛(4100200)门诊病历(初诊)e8b9e6fd-3645-4956-af23-ef9273ff6641.html</t>
-  </si>
-  <si>
-    <t>R10.402</t>
-  </si>
-  <si>
-    <t>腹痛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-性早熟（男童）(4100200)门诊病历(初诊)a00123c0-b012-4b13-905a-bdaaa56d05fe.html</t>
-  </si>
-  <si>
-    <t>E30.100</t>
-  </si>
-  <si>
-    <t>性早熟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-性早熟（女童）(4100200)门诊病历(初诊)14647c84-46a0-4d4e-9516-d2529a567743.html</t>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-血友病(4100200)门诊病历(初诊)63cf300b-fd4c-4f7f-bdf4-8d564a4cdd68.html</t>
-  </si>
-  <si>
-    <t>D66.x02</t>
-  </si>
-  <si>
-    <t>血友病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-椎动脉型颈椎病(4280000)门诊病历(初诊)57cabcfd-e091-4721-bafd-5b62e2c49e34.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊推拿科</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>椎动脉型颈椎病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-腹痛(4360106)门诊病历(初诊)ac497743-980a-447f-ad04-5a3be8bf288b.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>九舍门诊妇科</t>
-  </si>
-  <si>
-    <t>上腹痛-初诊(4360117)上腹痛-初诊4a8594fd-b473-47da-89db-3b7a2e942877.html</t>
-  </si>
-  <si>
-    <t>R10.101</t>
-  </si>
-  <si>
-    <t>上腹痛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下腹痛-初诊(4360117)下腹痛-初诊baa6a105-a261-49d7-a114-e6b557434051.html</t>
-  </si>
-  <si>
-    <t>R10.301</t>
-  </si>
-  <si>
-    <t>下腹痛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>头晕-初诊(4360117)头晕-初诊226014e5-341b-4416-b529-15fbe2dc9aee.html</t>
-  </si>
-  <si>
-    <t>血小板减少(初诊)(4050100)门诊病历(初诊)f15f5b78-2855-46c8-a04b-c804b1a73739.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊血液</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D69.600</t>
-  </si>
-  <si>
-    <t>血小板减少</t>
-  </si>
-  <si>
-    <t>血小板减少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-肩关节痛(4270000)门诊病历(初诊)57af8ad2-dcb7-4f0f-ad10-0c7ca9fb3526.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊针灸科</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>肩关节痛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-支气管炎(4270000)门诊病历(初诊)ccb3153b-d81c-4d36-83fb-ce0b6d274554.html</t>
-  </si>
-  <si>
-    <t>J40.x00</t>
-  </si>
-  <si>
-    <t>支气管炎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-肱骨内上髁炎(4280000)门诊病历(初诊)24497434-91c7-4a31-9c92-e6c19301c014.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M77.001</t>
-  </si>
-  <si>
-    <t>肱骨内上髁炎</t>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-肱骨外上髁炎(4280000)门诊病历(初诊)91a01a3a-0488-4657-8500-255df5353cc5.html</t>
-  </si>
-  <si>
-    <t>M77.101</t>
-  </si>
-  <si>
-    <t>肱骨外上髁炎</t>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-肱骨内、外上髁炎(4360109)门诊病历(初诊)0cf492da-aab5-425a-9f93-e6341fbcdc8a.html</t>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-肱骨内、外上髁炎(4360109)门诊病历(初诊)0cf492da-aab5-425a-9f93-e6341fbcdc8a.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>九舍门诊骨科</t>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-痛风性关节炎(4360109)门诊病历(初诊)00910d10-3b78-4f86-a569-4fc54e2ce3e5.html</t>
-  </si>
-  <si>
-    <t>M10.002</t>
-  </si>
-  <si>
-    <t>痛风性关节炎</t>
-  </si>
-  <si>
-    <t>皮炎湿疹(初诊)模板(4260100)皮炎湿疹(初诊)f9ee85c1-f29d-4b3c-9f9c-e6fc11be6218.html</t>
-  </si>
-  <si>
-    <t>皮炎湿疹(初诊)模板(4260100)皮炎湿疹(初诊)f9ee85c1-f29d-4b3c-9f9c-e6fc11be6218.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊皮肤科</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L30.900</t>
-  </si>
-  <si>
-    <t>皮炎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L30.902</t>
-  </si>
-  <si>
-    <t>湿疹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>湿疹(初诊)模板(4090200)门诊病历(初诊)0111ef2f-d69c-4d84-ae91-9b3e5a3f9443.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊中医外科</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>呕血-初诊(4360117)呕血-初诊6ef37e8a-6493-4943-9637-b05e842c1685.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>九舍门诊普内科</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血小板减少-初诊(4360117)血小板减少-初诊79dfe5ef-1fab-4ed2-b80d-41688eb296ea.html</t>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-乳房肿块(4121601)门诊病历(初诊)b5073a25-30ba-44b6-8c0f-b5a81ab810c8.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N63.x00</t>
-  </si>
-  <si>
-    <t>乳房肿块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-抑郁焦虑状态(4320100)门诊病历(初诊)c55c69e2-84ea-4cb8-adca-7caadd17e81c.html</t>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-抑郁焦虑状态(4320100)门诊病历(初诊)c55c69e2-84ea-4cb8-adca-7caadd17e81c.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊心理科</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F32.901</t>
-  </si>
-  <si>
-    <t>抑郁状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F41.101</t>
-  </si>
-  <si>
-    <t>焦虑状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M47.001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>conditions</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"gender":"M"}</t>
-  </si>
-  <si>
-    <t>{"gender":"F"}</t>
-  </si>
-  <si>
-    <t>depart_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>depart_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -717,7 +718,7 @@
   <dimension ref="C1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -735,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -750,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="3:10">
@@ -761,7 +762,7 @@
         <v>4250100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -778,7 +779,7 @@
         <v>4250100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -795,433 +796,433 @@
         <v>4100200</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="3:10">
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>4100200</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="3:10">
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>4100200</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="3:10">
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
         <v>4100200</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
         <v>4100200</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="3:10">
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1">
         <v>4100200</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="3:10">
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>4100200</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="3:10">
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>4280000</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="3:10">
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1">
         <v>4360106</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="3:10">
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1">
         <v>4360106</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="3:10">
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1">
         <v>4360106</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="3:10">
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1">
         <v>4360106</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="3:10">
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1">
         <v>4050100</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1">
         <v>4270000</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1">
         <v>4270000</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1">
         <v>4280000</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1">
         <v>4280000</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1">
         <v>4360109</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1">
         <v>4360109</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1">
         <v>4360109</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1">
         <v>4260100</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1">
         <v>4260100</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1">
         <v>4090200</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" spans="3:8">
       <c r="C27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1">
         <v>4360117</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="3:8">
       <c r="C28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="1">
         <v>4360117</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="3:8">
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1">
         <v>4121601</v>
@@ -1230,44 +1231,44 @@
         <v>4</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="30" spans="3:8">
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="1">
         <v>4320100</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="3:8">
       <c r="C31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="1">
         <v>4320100</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/tasks/templates2_660/template_disease_map.xlsx
+++ b/tasks/templates2_660/template_disease_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy.li/Basebit/Projects/AutoTemplate/tasks/templates2_660/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E49FBE-1215-6540-95F7-2A2A79B4BA98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34210EBB-E353-9148-B703-0DF83613590B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
   <si>
     <t>文件名</t>
   </si>
@@ -234,134 +234,129 @@
     <t>门诊病历(初诊)-肱骨外上髁炎(4280000)门诊病历(初诊)91a01a3a-0488-4657-8500-255df5353cc5.html</t>
   </si>
   <si>
+    <t>肱骨外上髁炎</t>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-肱骨内、外上髁炎(4360109)门诊病历(初诊)0cf492da-aab5-425a-9f93-e6341fbcdc8a.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九舍门诊骨科</t>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-痛风性关节炎(4360109)门诊病历(初诊)00910d10-3b78-4f86-a569-4fc54e2ce3e5.html</t>
+  </si>
+  <si>
+    <t>M10.002</t>
+  </si>
+  <si>
+    <t>痛风性关节炎</t>
+  </si>
+  <si>
+    <t>皮炎湿疹(初诊)模板(4260100)皮炎湿疹(初诊)f9ee85c1-f29d-4b3c-9f9c-e6fc11be6218.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊皮肤科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L30.902</t>
+  </si>
+  <si>
+    <t>湿疹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿疹(初诊)模板(4090200)门诊病历(初诊)0111ef2f-d69c-4d84-ae91-9b3e5a3f9443.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊中医外科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呕血-初诊(4360117)呕血-初诊6ef37e8a-6493-4943-9637-b05e842c1685.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九舍门诊普内科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血小板减少-初诊(4360117)血小板减少-初诊79dfe5ef-1fab-4ed2-b80d-41688eb296ea.html</t>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-乳房肿块(4121601)门诊病历(初诊)b5073a25-30ba-44b6-8c0f-b5a81ab810c8.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N63.x00</t>
+  </si>
+  <si>
+    <t>乳房肿块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊病历(初诊)-抑郁焦虑状态(4320100)门诊病历(初诊)c55c69e2-84ea-4cb8-adca-7caadd17e81c.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊心理科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M47.001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"gender":"M"}</t>
+  </si>
+  <si>
+    <t>{"gender":"F"}</t>
+  </si>
+  <si>
+    <t>depart_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>depart_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R04.200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>M77.101</t>
-  </si>
-  <si>
-    <t>肱骨外上髁炎</t>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-肱骨内、外上髁炎(4360109)门诊病历(初诊)0cf492da-aab5-425a-9f93-e6341fbcdc8a.html</t>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-肱骨内、外上髁炎(4360109)门诊病历(初诊)0cf492da-aab5-425a-9f93-e6341fbcdc8a.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>九舍门诊骨科</t>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-痛风性关节炎(4360109)门诊病历(初诊)00910d10-3b78-4f86-a569-4fc54e2ce3e5.html</t>
-  </si>
-  <si>
-    <t>M10.002</t>
-  </si>
-  <si>
-    <t>痛风性关节炎</t>
-  </si>
-  <si>
-    <t>皮炎湿疹(初诊)模板(4260100)皮炎湿疹(初诊)f9ee85c1-f29d-4b3c-9f9c-e6fc11be6218.html</t>
-  </si>
-  <si>
-    <t>皮炎湿疹(初诊)模板(4260100)皮炎湿疹(初诊)f9ee85c1-f29d-4b3c-9f9c-e6fc11be6218.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊皮肤科</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L30.900</t>
-  </si>
-  <si>
-    <t>皮炎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L30.902</t>
-  </si>
-  <si>
-    <t>湿疹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>湿疹(初诊)模板(4090200)门诊病历(初诊)0111ef2f-d69c-4d84-ae91-9b3e5a3f9443.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊中医外科</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>呕血-初诊(4360117)呕血-初诊6ef37e8a-6493-4943-9637-b05e842c1685.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>九舍门诊普内科</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血小板减少-初诊(4360117)血小板减少-初诊79dfe5ef-1fab-4ed2-b80d-41688eb296ea.html</t>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-乳房肿块(4121601)门诊病历(初诊)b5073a25-30ba-44b6-8c0f-b5a81ab810c8.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N63.x00</t>
-  </si>
-  <si>
-    <t>乳房肿块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-抑郁焦虑状态(4320100)门诊病历(初诊)c55c69e2-84ea-4cb8-adca-7caadd17e81c.html</t>
-  </si>
-  <si>
-    <t>门诊病历(初诊)-抑郁焦虑状态(4320100)门诊病历(初诊)c55c69e2-84ea-4cb8-adca-7caadd17e81c.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊心理科</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F32.901</t>
-  </si>
-  <si>
-    <t>抑郁状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F41.101</t>
-  </si>
-  <si>
-    <t>焦虑状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M47.001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>conditions</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"gender":"M"}</t>
-  </si>
-  <si>
-    <t>{"gender":"F"}</t>
-  </si>
-  <si>
-    <t>depart_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>depart_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R04.200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F32.901,F41.101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抑郁状态,焦虑状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M77.001,M77.101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肱骨内上髁炎,肱骨外上髁炎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L30.900,L30.902</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮炎,湿疹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -715,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:J31"/>
+  <dimension ref="C1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -736,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -751,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="3:10">
@@ -799,7 +794,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>13</v>
@@ -874,7 +869,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="3:10">
@@ -894,7 +889,7 @@
         <v>28</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="3:10">
@@ -925,7 +920,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>35</v>
@@ -1078,196 +1073,145 @@
         <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1">
         <v>4360109</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1">
         <v>4360109</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1">
-        <v>4360109</v>
+        <v>4260100</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4090200</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4260100</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1">
-        <v>4260100</v>
+        <v>4360117</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="1">
-        <v>4090200</v>
+        <v>4360117</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="3:8">
       <c r="C27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4121601</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4360117</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="28" spans="3:8">
       <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4320100</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="1">
-        <v>4360117</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8">
-      <c r="C29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="1">
-        <v>4121601</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8">
-      <c r="C30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4320100</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8">
-      <c r="C31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4320100</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" s="1" t="s">
         <v>89</v>
       </c>
     </row>
